--- a/biology/Zoologie/Harmogenanina_argentea/Harmogenanina_argentea.xlsx
+++ b/biology/Zoologie/Harmogenanina_argentea/Harmogenanina_argentea.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Harmogenanina argentea est une espèce de mollusque gastéropode terrestre de la famille des hélicarionidés. Elle constitue un représentant de la faune endémique de La Réunion[1], La Réunion étant une île française de l'océan Indien.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Harmogenanina argentea est une espèce de mollusque gastéropode terrestre de la famille des hélicarionidés. Elle constitue un représentant de la faune endémique de La Réunion, La Réunion étant une île française de l'océan Indien.
 </t>
         </is>
       </c>
